--- a/file/input/学工_1.3/学工_1.3_重要业务结果.xlsx
+++ b/file/input/学工_1.3/学工_1.3_重要业务结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\PycharmProjects\realOne\file\input\学工_1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A3937E-06DD-4001-9F41-AD0C97C7CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE7C9A-1B66-4C0F-9337-019899F01536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="6180" yWindow="0" windowWidth="19104" windowHeight="10788" activeTab="3" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="主数据检查" sheetId="1" r:id="rId1"/>
@@ -3517,9 +3517,6 @@
     <t>标准重要业务结果数据项数</t>
   </si>
   <si>
-    <t>未入标外部数据要求业务过单元数</t>
-  </si>
-  <si>
     <t>外部数据要求数据项数</t>
   </si>
   <si>
@@ -3656,6 +3653,10 @@
   </si>
   <si>
     <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未入标外部数据要求业务过程数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3663,7 +3664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,6 +3773,12 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -3902,7 +3909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4053,6 +4060,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -20442,7 +20451,7 @@
   </sheetPr>
   <dimension ref="A1:N282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
@@ -20535,7 +20544,7 @@
         <v>582</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>60</v>
@@ -23641,7 +23650,7 @@
         <v>582</v>
       </c>
       <c r="M82" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N82" s="42" t="s">
         <v>60</v>
@@ -26440,7 +26449,7 @@
       </c>
       <c r="F156" s="26"/>
       <c r="M156" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N156" s="42" t="s">
         <v>60</v>
@@ -26983,7 +26992,7 @@
         <v>582</v>
       </c>
       <c r="M171" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N171" s="42" t="s">
         <v>60</v>
@@ -27654,7 +27663,7 @@
         <v>582</v>
       </c>
       <c r="M189" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N189" s="42" t="s">
         <v>60</v>
@@ -27750,7 +27759,7 @@
         <v>582</v>
       </c>
       <c r="M192" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N192" s="42" t="s">
         <v>60</v>
@@ -28076,7 +28085,7 @@
         <v>582</v>
       </c>
       <c r="M200" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N200" s="42" t="s">
         <v>60</v>
@@ -28264,7 +28273,7 @@
         <v>582</v>
       </c>
       <c r="M205" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N205" s="42" t="s">
         <v>60</v>
@@ -30799,7 +30808,7 @@
         <v>582</v>
       </c>
       <c r="M273" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N273" s="42" t="s">
         <v>60</v>
@@ -31110,8 +31119,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -31211,7 +31220,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>1154</v>
       </c>
@@ -31226,7 +31235,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="58" t="s">
         <v>1156</v>
       </c>
       <c r="B9" s="2">
@@ -31238,7 +31247,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="58" t="s">
         <v>1157</v>
       </c>
       <c r="B10" s="2">
@@ -31250,7 +31259,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="59" t="s">
         <v>1158</v>
       </c>
       <c r="B11" s="2">
@@ -31262,8 +31271,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>1159</v>
+      <c r="A12" s="58" t="s">
+        <v>1205</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -31274,8 +31283,8 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>1160</v>
+      <c r="A13" s="59" t="s">
+        <v>1159</v>
       </c>
       <c r="B13" s="2">
         <v>257</v>
@@ -31286,8 +31295,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>1161</v>
+      <c r="A14" s="59" t="s">
+        <v>1160</v>
       </c>
       <c r="B14" s="2">
         <v>249</v>
@@ -31298,45 +31307,45 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>1162</v>
+      <c r="A15" s="59" t="s">
+        <v>1161</v>
       </c>
       <c r="B15" s="8">
         <f>B5/B4</f>
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>1164</v>
+      <c r="A16" s="58" t="s">
+        <v>1163</v>
       </c>
       <c r="B16" s="8">
         <f>B7/B6</f>
         <v>0.95238095238095233</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>1166</v>
+      <c r="A17" s="59" t="s">
+        <v>1165</v>
       </c>
       <c r="B17" s="8">
         <f>B10/B11</f>
         <v>0.87567567567567572</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
@@ -31344,28 +31353,26 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>1170</v>
+      <c r="A19" s="59" t="s">
+        <v>1169</v>
       </c>
       <c r="B19" s="8">
         <f>B14/B13</f>
         <v>0.9688715953307393</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
@@ -31373,76 +31380,76 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>1175</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>1176</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54.75" customHeight="1">
       <c r="A22" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>1180</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>1181</v>
       </c>
       <c r="E22" s="15">
         <f>B15</f>
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54.75" customHeight="1">
       <c r="A23" s="55" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="E23" s="17">
         <f>B16</f>
         <v>0.95238095238095233</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="54.75" customHeight="1">
       <c r="A24" s="56"/>
       <c r="B24" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>1188</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>1189</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>1190</v>
       </c>
       <c r="E24" s="20">
         <f>B17</f>
@@ -31453,13 +31460,13 @@
     <row r="25" spans="1:6" ht="81.75" customHeight="1">
       <c r="A25" s="56"/>
       <c r="B25" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>1191</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="22" t="s">
         <v>1192</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>1193</v>
       </c>
       <c r="E25" s="25">
         <f>B19</f>
@@ -31470,49 +31477,49 @@
     <row r="26" spans="1:6" ht="54.75" customHeight="1">
       <c r="A26" s="56"/>
       <c r="B26" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>1194</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="22" t="s">
         <v>1195</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>1196</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="23" t="s">
         <v>1197</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>1202</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
